--- a/C# Advanced.xlsx
+++ b/C# Advanced.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7935"/>
+    <workbookView windowWidth="20490" windowHeight="8355"/>
   </bookViews>
   <sheets>
     <sheet name="Questions_Upload" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251">
   <si>
     <t>Question Text</t>
   </si>
@@ -80,13 +80,13 @@
     <t>The structure variable ‘b’ will be created on the stack</t>
   </si>
   <si>
-    <t>s</t>
+    <t>CHash</t>
   </si>
   <si>
     <t>EASY</t>
   </si>
   <si>
-    <t>IH</t>
+    <t>Test</t>
   </si>
   <si>
     <t>Which of the following is a correct statement about the C#.NET code given below?
@@ -114,9 +114,6 @@
   </si>
   <si>
     <t>s will be created on the stack</t>
-  </si>
-  <si>
-    <t>CHash</t>
   </si>
   <si>
     <t>Choose the correct statement among the following which supports the fact that C# does not allow the creation of empty structures?</t>
@@ -1094,7 +1091,7 @@
     <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1118,38 +1115,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -1157,21 +1124,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -1187,7 +1147,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1201,31 +1183,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1240,7 +1207,30 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1253,9 +1243,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1282,7 +1272,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1294,31 +1284,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1336,13 +1350,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1354,37 +1392,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1396,7 +1404,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1408,13 +1416,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1426,31 +1428,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1463,6 +1441,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1502,17 +1492,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1520,8 +1504,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1544,15 +1528,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
@@ -1560,16 +1535,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1599,155 +1574,170 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1784,9 +1774,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2154,8 +2141,8 @@
   <sheetPr/>
   <dimension ref="A1:P75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" topLeftCell="D54" workbookViewId="0">
+      <selection activeCell="P54" sqref="P54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2202,19 +2189,19 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="18" t="s">
+      <c r="L1" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="18" t="s">
+      <c r="M1" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="18" t="s">
+      <c r="N1" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="18" t="s">
+      <c r="O1" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="18" t="s">
+      <c r="P1" s="17" t="s">
         <v>14</v>
       </c>
     </row>
@@ -2272,7 +2259,7 @@
         <v>4</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="J3" s="10"/>
       <c r="K3" s="10"/>
@@ -2285,19 +2272,19 @@
     </row>
     <row r="4" ht="120" spans="1:16">
       <c r="A4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="C4" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="D4" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="E4" s="4" t="s">
         <v>31</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>32</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
@@ -2305,7 +2292,7 @@
         <v>4</v>
       </c>
       <c r="I4" s="10" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="J4" s="10"/>
       <c r="K4" s="10"/>
@@ -2318,19 +2305,19 @@
     </row>
     <row r="5" ht="120" spans="1:16">
       <c r="A5" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="C5" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="D5" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="E5" s="7" t="s">
         <v>36</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>37</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
@@ -2338,7 +2325,7 @@
         <v>4</v>
       </c>
       <c r="I5" s="10" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="J5" s="10"/>
       <c r="K5" s="10"/>
@@ -2351,19 +2338,19 @@
     </row>
     <row r="6" ht="45" spans="1:16">
       <c r="A6" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="C6" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="D6" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="E6" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>42</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -2371,7 +2358,7 @@
         <v>4</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="J6" s="10"/>
       <c r="K6" s="10"/>
@@ -2384,7 +2371,7 @@
     </row>
     <row r="7" ht="165" spans="1:16">
       <c r="A7" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B7" s="6">
         <v>11</v>
@@ -2396,7 +2383,7 @@
         <v>2</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
@@ -2404,7 +2391,7 @@
         <v>4</v>
       </c>
       <c r="I7" s="10" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="J7" s="10"/>
       <c r="K7" s="10"/>
@@ -2417,19 +2404,19 @@
     </row>
     <row r="8" spans="1:16">
       <c r="A8" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="C8" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="D8" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="E8" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>49</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
@@ -2437,7 +2424,7 @@
         <v>4</v>
       </c>
       <c r="I8" s="10" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="J8" s="10"/>
       <c r="K8" s="10"/>
@@ -2450,19 +2437,19 @@
     </row>
     <row r="9" ht="45" spans="1:16">
       <c r="A9" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C9" s="2" t="s">
+      <c r="D9" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="E9" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>53</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
@@ -2470,7 +2457,7 @@
         <v>1</v>
       </c>
       <c r="I9" s="10" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="J9" s="10"/>
       <c r="K9" s="10"/>
@@ -2483,19 +2470,19 @@
     </row>
     <row r="10" spans="1:16">
       <c r="A10" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="C10" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="D10" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="E10" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>58</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
@@ -2503,7 +2490,7 @@
         <v>2</v>
       </c>
       <c r="I10" s="10" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="J10" s="10"/>
       <c r="K10" s="10"/>
@@ -2516,19 +2503,19 @@
     </row>
     <row r="11" ht="60" spans="1:16">
       <c r="A11" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B11" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="C11" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="D11" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="D11" s="9" t="s">
-        <v>62</v>
-      </c>
       <c r="E11" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F11" s="9"/>
       <c r="G11" s="9"/>
@@ -2536,7 +2523,7 @@
         <v>3</v>
       </c>
       <c r="I11" s="10" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="J11" s="10"/>
       <c r="K11" s="10"/>
@@ -2549,19 +2536,19 @@
     </row>
     <row r="12" ht="210" spans="1:16">
       <c r="A12" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B12" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="C12" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="D12" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="D12" s="9" t="s">
-        <v>66</v>
-      </c>
       <c r="E12" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F12" s="9"/>
       <c r="G12" s="9"/>
@@ -2569,7 +2556,7 @@
         <v>2</v>
       </c>
       <c r="I12" s="10" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="J12" s="10"/>
       <c r="K12" s="10"/>
@@ -2582,19 +2569,19 @@
     </row>
     <row r="13" ht="285" spans="1:16">
       <c r="A13" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B13" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="C13" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="D13" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="D13" s="9" t="s">
-        <v>70</v>
-      </c>
       <c r="E13" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F13" s="9"/>
       <c r="G13" s="9"/>
@@ -2602,7 +2589,7 @@
         <v>1</v>
       </c>
       <c r="I13" s="10" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="J13" s="10"/>
       <c r="K13" s="10"/>
@@ -2615,19 +2602,19 @@
     </row>
     <row r="14" ht="105" spans="1:16">
       <c r="A14" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B14" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="C14" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="D14" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="E14" s="9" t="s">
         <v>74</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>75</v>
       </c>
       <c r="F14" s="9"/>
       <c r="G14" s="9"/>
@@ -2635,7 +2622,7 @@
         <v>3</v>
       </c>
       <c r="I14" s="10" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="J14" s="10"/>
       <c r="K14" s="10"/>
@@ -2648,7 +2635,7 @@
     </row>
     <row r="15" ht="330" spans="1:16">
       <c r="A15" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B15" s="3">
         <v>2</v>
@@ -2668,7 +2655,7 @@
         <v>3</v>
       </c>
       <c r="I15" s="10" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="J15" s="10"/>
       <c r="K15" s="10"/>
@@ -2681,19 +2668,19 @@
     </row>
     <row r="16" spans="1:16">
       <c r="A16" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="C16" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="D16" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="E16" s="9" t="s">
         <v>80</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>81</v>
       </c>
       <c r="F16" s="9"/>
       <c r="G16" s="9"/>
@@ -2701,7 +2688,7 @@
         <v>2</v>
       </c>
       <c r="I16" s="10" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="J16" s="10"/>
       <c r="K16" s="10"/>
@@ -2714,19 +2701,19 @@
     </row>
     <row r="17" spans="1:16">
       <c r="A17" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B17" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="B17" s="19" t="s">
+      <c r="C17" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="D17" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="D17" s="4" t="s">
-        <v>85</v>
-      </c>
       <c r="E17" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F17" s="9"/>
       <c r="G17" s="9"/>
@@ -2734,7 +2721,7 @@
         <v>3</v>
       </c>
       <c r="I17" s="10" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="J17" s="10"/>
       <c r="K17" s="10"/>
@@ -2747,19 +2734,19 @@
     </row>
     <row r="18" ht="105" spans="1:16">
       <c r="A18" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B18" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="B18" s="20" t="s">
+      <c r="C18" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="C18" s="21" t="s">
+      <c r="D18" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="D18" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="E18" s="21" t="s">
-        <v>53</v>
+      <c r="E18" s="20" t="s">
+        <v>52</v>
       </c>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
@@ -2767,7 +2754,7 @@
         <v>4</v>
       </c>
       <c r="I18" s="10" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="J18" s="10"/>
       <c r="K18" s="10"/>
@@ -2780,19 +2767,19 @@
     </row>
     <row r="19" ht="90" spans="1:16">
       <c r="A19" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="C19" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="D19" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="D19" s="4" t="s">
-        <v>93</v>
-      </c>
       <c r="E19" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
@@ -2800,7 +2787,7 @@
         <v>3</v>
       </c>
       <c r="I19" s="10" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="J19" s="10"/>
       <c r="K19" s="10"/>
@@ -2813,19 +2800,19 @@
     </row>
     <row r="20" ht="105" spans="1:16">
       <c r="A20" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B20" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="C20" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="D20" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="E20" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>98</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
@@ -2833,7 +2820,7 @@
         <v>2</v>
       </c>
       <c r="I20" s="10" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="J20" s="10"/>
       <c r="K20" s="10"/>
@@ -2846,19 +2833,19 @@
     </row>
     <row r="21" ht="120" spans="1:16">
       <c r="A21" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B21" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="C21" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="D21" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="D21" s="4" t="s">
-        <v>102</v>
-      </c>
       <c r="E21" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
@@ -2866,7 +2853,7 @@
         <v>4</v>
       </c>
       <c r="I21" s="10" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="J21" s="10"/>
       <c r="K21" s="10"/>
@@ -2879,19 +2866,19 @@
     </row>
     <row r="22" ht="45" spans="1:16">
       <c r="A22" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B22" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="C22" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="D22" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="D22" s="4" t="s">
-        <v>106</v>
-      </c>
       <c r="E22" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
@@ -2899,7 +2886,7 @@
         <v>3</v>
       </c>
       <c r="I22" s="10" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="J22" s="10"/>
       <c r="K22" s="10"/>
@@ -2912,19 +2899,19 @@
     </row>
     <row r="23" ht="30" spans="1:16">
       <c r="A23" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B23" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="C23" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="C23" s="9" t="s">
+      <c r="D23" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="D23" s="9" t="s">
+      <c r="E23" s="9" t="s">
         <v>110</v>
-      </c>
-      <c r="E23" s="9" t="s">
-        <v>111</v>
       </c>
       <c r="F23" s="9"/>
       <c r="G23" s="9"/>
@@ -2932,7 +2919,7 @@
         <v>1</v>
       </c>
       <c r="I23" s="10" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="J23" s="10"/>
       <c r="K23" s="10"/>
@@ -2945,7 +2932,7 @@
     </row>
     <row r="24" ht="225" spans="1:16">
       <c r="A24" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B24" s="8">
         <v>12345</v>
@@ -2957,7 +2944,7 @@
         <v>1234500</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
@@ -2965,7 +2952,7 @@
         <v>2</v>
       </c>
       <c r="I24" s="10" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="J24" s="10"/>
       <c r="K24" s="10"/>
@@ -2978,19 +2965,19 @@
     </row>
     <row r="25" ht="255" spans="1:16">
       <c r="A25" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B25" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="C25" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="D25" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="E25" s="4" t="s">
         <v>116</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>117</v>
       </c>
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
@@ -2998,7 +2985,7 @@
         <v>2</v>
       </c>
       <c r="I25" s="10" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="J25" s="10"/>
       <c r="K25" s="10"/>
@@ -3011,7 +2998,7 @@
     </row>
     <row r="26" ht="285" spans="1:16">
       <c r="A26" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B26" s="3">
         <v>-1</v>
@@ -3019,11 +3006,11 @@
       <c r="C26" s="4">
         <v>0</v>
       </c>
-      <c r="D26" s="21" t="s">
+      <c r="D26" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="E26" s="20" t="s">
         <v>119</v>
-      </c>
-      <c r="E26" s="21" t="s">
-        <v>120</v>
       </c>
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
@@ -3031,7 +3018,7 @@
         <v>3</v>
       </c>
       <c r="I26" s="10" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="J26" s="10"/>
       <c r="K26" s="10"/>
@@ -3044,19 +3031,19 @@
     </row>
     <row r="27" ht="45" spans="1:16">
       <c r="A27" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B27" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="C27" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="C27" s="21" t="s">
+      <c r="D27" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="D27" s="4" t="s">
+      <c r="E27" s="20" t="s">
         <v>124</v>
-      </c>
-      <c r="E27" s="21" t="s">
-        <v>125</v>
       </c>
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
@@ -3064,7 +3051,7 @@
         <v>4</v>
       </c>
       <c r="I27" s="10" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="J27" s="10"/>
       <c r="K27" s="10"/>
@@ -3077,19 +3064,19 @@
     </row>
     <row r="28" ht="60" spans="1:16">
       <c r="A28" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B28" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="C28" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="D28" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="D28" s="9" t="s">
+      <c r="E28" s="9" t="s">
         <v>129</v>
-      </c>
-      <c r="E28" s="9" t="s">
-        <v>130</v>
       </c>
       <c r="F28" s="9"/>
       <c r="G28" s="9"/>
@@ -3097,7 +3084,7 @@
         <v>4</v>
       </c>
       <c r="I28" s="10" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="J28" s="10"/>
       <c r="K28" s="10"/>
@@ -3110,19 +3097,19 @@
     </row>
     <row r="29" ht="285" spans="1:16">
       <c r="A29" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="B29" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="C29" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="D29" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="D29" s="4" t="s">
-        <v>134</v>
-      </c>
       <c r="E29" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
@@ -3130,7 +3117,7 @@
         <v>2</v>
       </c>
       <c r="I29" s="10" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="J29" s="10"/>
       <c r="K29" s="10"/>
@@ -3143,19 +3130,19 @@
     </row>
     <row r="30" ht="225" spans="1:16">
       <c r="A30" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="B30" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="C30" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="D30" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="D30" s="9" t="s">
-        <v>138</v>
-      </c>
       <c r="E30" s="9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F30" s="9"/>
       <c r="G30" s="9"/>
@@ -3163,7 +3150,7 @@
         <v>4</v>
       </c>
       <c r="I30" s="10" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="J30" s="10"/>
       <c r="K30" s="10"/>
@@ -3176,19 +3163,19 @@
     </row>
     <row r="31" ht="75" spans="1:16">
       <c r="A31" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="B31" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="B31" s="12" t="s">
+      <c r="C31" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="C31" s="12" t="s">
+      <c r="D31" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="D31" s="12" t="s">
-        <v>142</v>
-      </c>
       <c r="E31" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F31" s="12"/>
       <c r="G31" s="12"/>
@@ -3196,7 +3183,7 @@
         <v>3</v>
       </c>
       <c r="I31" s="10" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="J31" s="5"/>
       <c r="K31" s="5"/>
@@ -3209,19 +3196,19 @@
     </row>
     <row r="32" ht="30" spans="1:16">
       <c r="A32" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="B32" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="C32" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="C32" s="12" t="s">
+      <c r="D32" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="D32" s="12" t="s">
+      <c r="E32" s="12" t="s">
         <v>146</v>
-      </c>
-      <c r="E32" s="12" t="s">
-        <v>147</v>
       </c>
       <c r="F32" s="12"/>
       <c r="G32" s="12"/>
@@ -3229,7 +3216,7 @@
         <v>4</v>
       </c>
       <c r="I32" s="10" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="J32" s="5"/>
       <c r="K32" s="5"/>
@@ -3242,19 +3229,19 @@
     </row>
     <row r="33" ht="120" spans="1:16">
       <c r="A33" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="B33" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="C33" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="C33" s="12" t="s">
+      <c r="D33" s="12" t="s">
         <v>150</v>
       </c>
-      <c r="D33" s="12" t="s">
-        <v>151</v>
-      </c>
       <c r="E33" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F33" s="12"/>
       <c r="G33" s="12"/>
@@ -3262,7 +3249,7 @@
         <v>1</v>
       </c>
       <c r="I33" s="10" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="J33" s="5"/>
       <c r="K33" s="5"/>
@@ -3275,19 +3262,19 @@
     </row>
     <row r="34" ht="30" spans="1:16">
       <c r="A34" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="B34" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="C34" s="12" t="s">
         <v>153</v>
       </c>
-      <c r="C34" s="12" t="s">
+      <c r="D34" s="12" t="s">
         <v>154</v>
       </c>
-      <c r="D34" s="12" t="s">
-        <v>155</v>
-      </c>
       <c r="E34" s="12" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F34" s="12"/>
       <c r="G34" s="12"/>
@@ -3295,7 +3282,7 @@
         <v>3</v>
       </c>
       <c r="I34" s="10" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="J34" s="5"/>
       <c r="K34" s="5"/>
@@ -3308,19 +3295,19 @@
     </row>
     <row r="35" spans="1:16">
       <c r="A35" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="B35" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="C35" s="12" t="s">
         <v>157</v>
       </c>
-      <c r="C35" s="12" t="s">
+      <c r="D35" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="D35" s="12" t="s">
+      <c r="E35" s="12" t="s">
         <v>159</v>
-      </c>
-      <c r="E35" s="12" t="s">
-        <v>160</v>
       </c>
       <c r="F35" s="12"/>
       <c r="G35" s="12"/>
@@ -3328,7 +3315,7 @@
         <v>3</v>
       </c>
       <c r="I35" s="10" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="J35" s="5"/>
       <c r="K35" s="5"/>
@@ -3341,7 +3328,7 @@
     </row>
     <row r="36" spans="1:16">
       <c r="A36" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B36" s="3" t="b">
         <v>0</v>
@@ -3353,7 +3340,7 @@
         <v>-1</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F36" s="9"/>
       <c r="G36" s="9"/>
@@ -3361,7 +3348,7 @@
         <v>3</v>
       </c>
       <c r="I36" s="10" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="J36" s="5"/>
       <c r="K36" s="5"/>
@@ -3374,19 +3361,19 @@
     </row>
     <row r="37" ht="60" spans="1:16">
       <c r="A37" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="B37" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="B37" s="5" t="s">
+      <c r="C37" s="12" t="s">
         <v>163</v>
       </c>
-      <c r="C37" s="12" t="s">
+      <c r="D37" s="12" t="s">
         <v>164</v>
       </c>
-      <c r="D37" s="12" t="s">
-        <v>165</v>
-      </c>
       <c r="E37" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F37" s="12"/>
       <c r="G37" s="12"/>
@@ -3394,7 +3381,7 @@
         <v>4</v>
       </c>
       <c r="I37" s="10" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="J37" s="5"/>
       <c r="K37" s="5"/>
@@ -3407,19 +3394,19 @@
     </row>
     <row r="38" ht="120" spans="1:16">
       <c r="A38" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C38" s="12" t="s">
         <v>166</v>
       </c>
-      <c r="B38" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="C38" s="12" t="s">
+      <c r="D38" s="12" t="s">
         <v>167</v>
       </c>
-      <c r="D38" s="12" t="s">
+      <c r="E38" s="12" t="s">
         <v>168</v>
-      </c>
-      <c r="E38" s="12" t="s">
-        <v>169</v>
       </c>
       <c r="F38" s="12"/>
       <c r="G38" s="12"/>
@@ -3427,7 +3414,7 @@
         <v>2</v>
       </c>
       <c r="I38" s="10" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="J38" s="5"/>
       <c r="K38" s="5"/>
@@ -3440,19 +3427,19 @@
     </row>
     <row r="39" ht="150" spans="1:16">
       <c r="A39" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="B39" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="B39" s="5" t="s">
+      <c r="C39" s="12" t="s">
         <v>171</v>
       </c>
-      <c r="C39" s="12" t="s">
+      <c r="D39" s="12" t="s">
         <v>172</v>
       </c>
-      <c r="D39" s="12" t="s">
-        <v>173</v>
-      </c>
       <c r="E39" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F39" s="12"/>
       <c r="G39" s="12"/>
@@ -3460,7 +3447,7 @@
         <v>3</v>
       </c>
       <c r="I39" s="10" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="J39" s="5"/>
       <c r="K39" s="5"/>
@@ -3473,19 +3460,19 @@
     </row>
     <row r="40" ht="30" spans="1:16">
       <c r="A40" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="B40" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="B40" s="5" t="s">
+      <c r="C40" s="12" t="s">
         <v>175</v>
       </c>
-      <c r="C40" s="12" t="s">
+      <c r="D40" s="12" t="s">
         <v>176</v>
       </c>
-      <c r="D40" s="12" t="s">
-        <v>177</v>
-      </c>
       <c r="E40" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F40" s="12"/>
       <c r="G40" s="12"/>
@@ -3493,7 +3480,7 @@
         <v>1</v>
       </c>
       <c r="I40" s="10" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="J40" s="5"/>
       <c r="K40" s="5"/>
@@ -3506,27 +3493,27 @@
     </row>
     <row r="41" spans="1:16">
       <c r="A41" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="B41" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="B41" s="5" t="s">
+      <c r="C41" s="12" t="s">
         <v>179</v>
       </c>
-      <c r="C41" s="12" t="s">
+      <c r="D41" s="12" t="s">
         <v>180</v>
       </c>
-      <c r="D41" s="12" t="s">
+      <c r="E41" s="12" t="s">
         <v>181</v>
-      </c>
-      <c r="E41" s="12" t="s">
-        <v>182</v>
       </c>
       <c r="F41" s="12"/>
       <c r="G41" s="12"/>
       <c r="H41" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I41" s="10" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="J41" s="5"/>
       <c r="K41" s="5"/>
@@ -3539,27 +3526,27 @@
     </row>
     <row r="42" ht="45" spans="1:16">
       <c r="A42" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="B42" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="B42" s="5" t="s">
+      <c r="C42" s="12" t="s">
         <v>185</v>
       </c>
-      <c r="C42" s="12" t="s">
+      <c r="D42" s="12" t="s">
         <v>186</v>
       </c>
-      <c r="D42" s="12" t="s">
-        <v>187</v>
-      </c>
       <c r="E42" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F42" s="12"/>
       <c r="G42" s="12"/>
       <c r="H42" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I42" s="10" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="J42" s="5"/>
       <c r="K42" s="5"/>
@@ -3572,19 +3559,19 @@
     </row>
     <row r="43" spans="1:16">
       <c r="A43" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="B43" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="B43" s="5" t="s">
+      <c r="C43" s="12" t="s">
         <v>190</v>
       </c>
-      <c r="C43" s="12" t="s">
+      <c r="D43" s="12" t="s">
         <v>191</v>
       </c>
-      <c r="D43" s="12" t="s">
-        <v>192</v>
-      </c>
       <c r="E43" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F43" s="12"/>
       <c r="G43" s="12"/>
@@ -3592,7 +3579,7 @@
         <v>1</v>
       </c>
       <c r="I43" s="10" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="J43" s="5"/>
       <c r="K43" s="5"/>
@@ -3605,19 +3592,19 @@
     </row>
     <row r="44" ht="30" spans="1:16">
       <c r="A44" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="B44" s="12" t="s">
         <v>193</v>
       </c>
-      <c r="B44" s="12" t="s">
+      <c r="C44" s="12" t="s">
         <v>194</v>
       </c>
-      <c r="C44" s="12" t="s">
+      <c r="D44" s="12" t="s">
         <v>195</v>
       </c>
-      <c r="D44" s="12" t="s">
+      <c r="E44" s="12" t="s">
         <v>196</v>
-      </c>
-      <c r="E44" s="12" t="s">
-        <v>197</v>
       </c>
       <c r="F44" s="12"/>
       <c r="G44" s="12"/>
@@ -3625,7 +3612,7 @@
         <v>4</v>
       </c>
       <c r="I44" s="10" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="J44" s="5"/>
       <c r="K44" s="5"/>
@@ -3638,19 +3625,19 @@
     </row>
     <row r="45" ht="60" spans="1:16">
       <c r="A45" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="B45" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="B45" s="5" t="s">
+      <c r="C45" s="12" t="s">
         <v>199</v>
       </c>
-      <c r="C45" s="12" t="s">
+      <c r="D45" s="12" t="s">
         <v>200</v>
       </c>
-      <c r="D45" s="12" t="s">
+      <c r="E45" s="12" t="s">
         <v>201</v>
-      </c>
-      <c r="E45" s="12" t="s">
-        <v>202</v>
       </c>
       <c r="F45" s="12"/>
       <c r="G45" s="12"/>
@@ -3658,7 +3645,7 @@
         <v>1</v>
       </c>
       <c r="I45" s="10" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="J45" s="5"/>
       <c r="K45" s="5"/>
@@ -3671,19 +3658,19 @@
     </row>
     <row r="46" ht="45" spans="1:16">
       <c r="A46" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="B46" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="B46" s="5" t="s">
+      <c r="C46" s="12" t="s">
         <v>204</v>
       </c>
-      <c r="C46" s="12" t="s">
+      <c r="D46" s="12" t="s">
         <v>205</v>
       </c>
-      <c r="D46" s="12" t="s">
-        <v>206</v>
-      </c>
       <c r="E46" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F46" s="12"/>
       <c r="G46" s="12"/>
@@ -3691,7 +3678,7 @@
         <v>3</v>
       </c>
       <c r="I46" s="10" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="J46" s="5"/>
       <c r="K46" s="5"/>
@@ -3704,19 +3691,19 @@
     </row>
     <row r="47" ht="45" spans="1:16">
       <c r="A47" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B47" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="C47" s="12" t="s">
         <v>204</v>
       </c>
-      <c r="C47" s="12" t="s">
+      <c r="D47" s="12" t="s">
         <v>205</v>
       </c>
-      <c r="D47" s="12" t="s">
-        <v>206</v>
-      </c>
       <c r="E47" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F47" s="12"/>
       <c r="G47" s="12"/>
@@ -3724,7 +3711,7 @@
         <v>2</v>
       </c>
       <c r="I47" s="10" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="J47" s="5"/>
       <c r="K47" s="5"/>
@@ -3737,19 +3724,19 @@
     </row>
     <row r="48" spans="1:16">
       <c r="A48" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="B48" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="B48" s="5" t="s">
+      <c r="C48" s="12" t="s">
         <v>209</v>
       </c>
-      <c r="C48" s="12" t="s">
+      <c r="D48" s="12" t="s">
         <v>210</v>
       </c>
-      <c r="D48" s="12" t="s">
+      <c r="E48" s="12" t="s">
         <v>211</v>
-      </c>
-      <c r="E48" s="12" t="s">
-        <v>212</v>
       </c>
       <c r="F48" s="12"/>
       <c r="G48" s="12"/>
@@ -3757,7 +3744,7 @@
         <v>2</v>
       </c>
       <c r="I48" s="10" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="J48" s="5"/>
       <c r="K48" s="5"/>
@@ -3770,19 +3757,19 @@
     </row>
     <row r="49" ht="180" spans="1:16">
       <c r="A49" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="B49" s="12" t="s">
         <v>213</v>
       </c>
-      <c r="B49" s="12" t="s">
+      <c r="C49" s="12" t="s">
         <v>214</v>
       </c>
-      <c r="C49" s="12" t="s">
+      <c r="D49" s="12" t="s">
         <v>215</v>
       </c>
-      <c r="D49" s="12" t="s">
-        <v>216</v>
-      </c>
       <c r="E49" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F49" s="12"/>
       <c r="G49" s="12"/>
@@ -3790,7 +3777,7 @@
         <v>3</v>
       </c>
       <c r="I49" s="10" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="J49" s="5"/>
       <c r="K49" s="5"/>
@@ -3803,19 +3790,19 @@
     </row>
     <row r="50" ht="165" spans="1:16">
       <c r="A50" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="B50" s="12" t="s">
         <v>217</v>
       </c>
-      <c r="B50" s="12" t="s">
+      <c r="C50" s="12" t="s">
         <v>218</v>
       </c>
-      <c r="C50" s="12" t="s">
+      <c r="D50" s="12" t="s">
         <v>219</v>
       </c>
-      <c r="D50" s="12" t="s">
+      <c r="E50" s="12" t="s">
         <v>220</v>
-      </c>
-      <c r="E50" s="12" t="s">
-        <v>221</v>
       </c>
       <c r="F50" s="12"/>
       <c r="G50" s="12"/>
@@ -3823,7 +3810,7 @@
         <v>2</v>
       </c>
       <c r="I50" s="10" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="J50" s="5"/>
       <c r="K50" s="5"/>
@@ -3836,19 +3823,19 @@
     </row>
     <row r="51" ht="45" spans="1:16">
       <c r="A51" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="B51" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="B51" s="5" t="s">
+      <c r="C51" s="12" t="s">
         <v>223</v>
       </c>
-      <c r="C51" s="12" t="s">
+      <c r="D51" s="12" t="s">
         <v>224</v>
       </c>
-      <c r="D51" s="12" t="s">
+      <c r="E51" s="12" t="s">
         <v>225</v>
-      </c>
-      <c r="E51" s="12" t="s">
-        <v>226</v>
       </c>
       <c r="F51" s="12"/>
       <c r="G51" s="12"/>
@@ -3856,7 +3843,7 @@
         <v>4</v>
       </c>
       <c r="I51" s="10" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="J51" s="5"/>
       <c r="K51" s="5"/>
@@ -3869,19 +3856,19 @@
     </row>
     <row r="52" ht="255" spans="1:16">
       <c r="A52" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="B52" s="21" t="s">
         <v>227</v>
       </c>
-      <c r="B52" s="22" t="s">
+      <c r="C52" s="22" t="s">
         <v>228</v>
       </c>
-      <c r="C52" s="23" t="s">
+      <c r="D52" s="22" t="s">
         <v>229</v>
       </c>
-      <c r="D52" s="23" t="s">
-        <v>230</v>
-      </c>
       <c r="E52" s="12" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F52" s="12"/>
       <c r="G52" s="12"/>
@@ -3889,7 +3876,7 @@
         <v>2</v>
       </c>
       <c r="I52" s="10" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="J52" s="5"/>
       <c r="K52" s="5"/>
@@ -3902,10 +3889,10 @@
     </row>
     <row r="53" ht="255" spans="1:16">
       <c r="A53" s="12" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C53" s="12">
         <v>3</v>
@@ -3914,7 +3901,7 @@
         <v>5</v>
       </c>
       <c r="E53" s="12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F53" s="12"/>
       <c r="G53" s="12"/>
@@ -3922,7 +3909,7 @@
         <v>2</v>
       </c>
       <c r="I53" s="10" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="J53" s="5"/>
       <c r="K53" s="5"/>
@@ -3935,19 +3922,19 @@
     </row>
     <row r="54" ht="330" spans="1:16">
       <c r="A54" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="B54" s="12" t="s">
         <v>232</v>
       </c>
-      <c r="B54" s="12" t="s">
+      <c r="C54" s="12" t="s">
         <v>233</v>
       </c>
-      <c r="C54" s="12" t="s">
+      <c r="D54" s="12" t="s">
         <v>234</v>
       </c>
-      <c r="D54" s="12" t="s">
+      <c r="E54" s="12" t="s">
         <v>235</v>
-      </c>
-      <c r="E54" s="12" t="s">
-        <v>236</v>
       </c>
       <c r="F54" s="12"/>
       <c r="G54" s="12"/>
@@ -3955,7 +3942,7 @@
         <v>1</v>
       </c>
       <c r="I54" s="10" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="J54" s="5"/>
       <c r="K54" s="5"/>
@@ -3968,19 +3955,19 @@
     </row>
     <row r="55" ht="60" spans="1:16">
       <c r="A55" s="12" t="s">
+        <v>236</v>
+      </c>
+      <c r="B55" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="B55" s="5" t="s">
+      <c r="C55" s="12" t="s">
         <v>238</v>
       </c>
-      <c r="C55" s="12" t="s">
+      <c r="D55" s="12" t="s">
         <v>239</v>
       </c>
-      <c r="D55" s="12" t="s">
+      <c r="E55" s="12" t="s">
         <v>240</v>
-      </c>
-      <c r="E55" s="12" t="s">
-        <v>241</v>
       </c>
       <c r="F55" s="12"/>
       <c r="G55" s="12"/>
@@ -3988,7 +3975,7 @@
         <v>4</v>
       </c>
       <c r="I55" s="10" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="J55" s="5"/>
       <c r="K55" s="5"/>
@@ -4001,19 +3988,19 @@
     </row>
     <row r="56" ht="210" spans="1:16">
       <c r="A56" s="12" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B56" s="5">
         <v>6</v>
       </c>
       <c r="C56" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="D56" s="12" t="s">
         <v>243</v>
       </c>
-      <c r="D56" s="12" t="s">
+      <c r="E56" s="12" t="s">
         <v>244</v>
-      </c>
-      <c r="E56" s="12" t="s">
-        <v>245</v>
       </c>
       <c r="F56" s="12"/>
       <c r="G56" s="12"/>
@@ -4021,7 +4008,7 @@
         <v>1</v>
       </c>
       <c r="I56" s="10" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="J56" s="5"/>
       <c r="K56" s="5"/>
@@ -4034,19 +4021,19 @@
     </row>
     <row r="57" ht="195" spans="1:16">
       <c r="A57" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="B57" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="B57" s="3" t="s">
+      <c r="C57" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="C57" s="4" t="s">
+      <c r="D57" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="D57" s="4" t="s">
+      <c r="E57" s="4" t="s">
         <v>249</v>
-      </c>
-      <c r="E57" s="4" t="s">
-        <v>250</v>
       </c>
       <c r="F57" s="4"/>
       <c r="G57" s="4"/>
@@ -4054,7 +4041,7 @@
         <v>3</v>
       </c>
       <c r="I57" s="10" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="J57" s="3"/>
       <c r="K57" s="3"/>
@@ -4067,14 +4054,14 @@
     </row>
     <row r="58" spans="1:16">
       <c r="A58" s="11" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B58" s="15"/>
-      <c r="C58" s="16"/>
-      <c r="D58" s="16"/>
-      <c r="E58" s="16"/>
-      <c r="F58" s="16"/>
-      <c r="G58" s="16"/>
+      <c r="C58" s="4"/>
+      <c r="D58" s="4"/>
+      <c r="E58" s="4"/>
+      <c r="F58" s="4"/>
+      <c r="G58" s="4"/>
       <c r="H58" s="15"/>
       <c r="I58" s="15"/>
       <c r="J58" s="15"/>
@@ -4087,123 +4074,123 @@
       </c>
     </row>
     <row r="59" spans="3:7">
-      <c r="C59" s="17"/>
-      <c r="D59" s="17"/>
-      <c r="E59" s="17"/>
-      <c r="F59" s="17"/>
-      <c r="G59" s="17"/>
+      <c r="C59" s="16"/>
+      <c r="D59" s="16"/>
+      <c r="E59" s="16"/>
+      <c r="F59" s="16"/>
+      <c r="G59" s="16"/>
     </row>
     <row r="60" spans="3:7">
-      <c r="C60" s="17"/>
-      <c r="D60" s="17"/>
-      <c r="E60" s="17"/>
-      <c r="F60" s="17"/>
-      <c r="G60" s="17"/>
+      <c r="C60" s="16"/>
+      <c r="D60" s="16"/>
+      <c r="E60" s="16"/>
+      <c r="F60" s="16"/>
+      <c r="G60" s="16"/>
     </row>
     <row r="61" spans="3:7">
-      <c r="C61" s="17"/>
-      <c r="D61" s="17"/>
-      <c r="E61" s="17"/>
-      <c r="F61" s="17"/>
-      <c r="G61" s="17"/>
+      <c r="C61" s="16"/>
+      <c r="D61" s="16"/>
+      <c r="E61" s="16"/>
+      <c r="F61" s="16"/>
+      <c r="G61" s="16"/>
     </row>
     <row r="62" spans="3:7">
-      <c r="C62" s="17"/>
-      <c r="D62" s="17"/>
-      <c r="E62" s="17"/>
-      <c r="F62" s="17"/>
-      <c r="G62" s="17"/>
+      <c r="C62" s="16"/>
+      <c r="D62" s="16"/>
+      <c r="E62" s="16"/>
+      <c r="F62" s="16"/>
+      <c r="G62" s="16"/>
     </row>
     <row r="63" spans="3:7">
-      <c r="C63" s="17"/>
-      <c r="D63" s="17"/>
-      <c r="E63" s="17"/>
-      <c r="F63" s="17"/>
-      <c r="G63" s="17"/>
+      <c r="C63" s="16"/>
+      <c r="D63" s="16"/>
+      <c r="E63" s="16"/>
+      <c r="F63" s="16"/>
+      <c r="G63" s="16"/>
     </row>
     <row r="64" spans="3:7">
-      <c r="C64" s="17"/>
-      <c r="D64" s="17"/>
-      <c r="E64" s="17"/>
-      <c r="F64" s="17"/>
-      <c r="G64" s="17"/>
+      <c r="C64" s="16"/>
+      <c r="D64" s="16"/>
+      <c r="E64" s="16"/>
+      <c r="F64" s="16"/>
+      <c r="G64" s="16"/>
     </row>
     <row r="65" spans="3:7">
-      <c r="C65" s="17"/>
-      <c r="D65" s="17"/>
-      <c r="E65" s="17"/>
-      <c r="F65" s="17"/>
-      <c r="G65" s="17"/>
+      <c r="C65" s="16"/>
+      <c r="D65" s="16"/>
+      <c r="E65" s="16"/>
+      <c r="F65" s="16"/>
+      <c r="G65" s="16"/>
     </row>
     <row r="66" spans="3:7">
-      <c r="C66" s="17"/>
-      <c r="D66" s="17"/>
-      <c r="E66" s="17"/>
-      <c r="F66" s="17"/>
-      <c r="G66" s="17"/>
+      <c r="C66" s="16"/>
+      <c r="D66" s="16"/>
+      <c r="E66" s="16"/>
+      <c r="F66" s="16"/>
+      <c r="G66" s="16"/>
     </row>
     <row r="67" spans="3:7">
-      <c r="C67" s="17"/>
-      <c r="D67" s="17"/>
-      <c r="E67" s="17"/>
-      <c r="F67" s="17"/>
-      <c r="G67" s="17"/>
+      <c r="C67" s="16"/>
+      <c r="D67" s="16"/>
+      <c r="E67" s="16"/>
+      <c r="F67" s="16"/>
+      <c r="G67" s="16"/>
     </row>
     <row r="68" spans="3:7">
-      <c r="C68" s="17"/>
-      <c r="D68" s="17"/>
-      <c r="E68" s="17"/>
-      <c r="F68" s="17"/>
-      <c r="G68" s="17"/>
+      <c r="C68" s="16"/>
+      <c r="D68" s="16"/>
+      <c r="E68" s="16"/>
+      <c r="F68" s="16"/>
+      <c r="G68" s="16"/>
     </row>
     <row r="69" spans="3:7">
-      <c r="C69" s="17"/>
-      <c r="D69" s="17"/>
-      <c r="E69" s="17"/>
-      <c r="F69" s="17"/>
-      <c r="G69" s="17"/>
+      <c r="C69" s="16"/>
+      <c r="D69" s="16"/>
+      <c r="E69" s="16"/>
+      <c r="F69" s="16"/>
+      <c r="G69" s="16"/>
     </row>
     <row r="70" spans="3:7">
-      <c r="C70" s="17"/>
-      <c r="D70" s="17"/>
-      <c r="E70" s="17"/>
-      <c r="F70" s="17"/>
-      <c r="G70" s="17"/>
+      <c r="C70" s="16"/>
+      <c r="D70" s="16"/>
+      <c r="E70" s="16"/>
+      <c r="F70" s="16"/>
+      <c r="G70" s="16"/>
     </row>
     <row r="71" spans="3:7">
-      <c r="C71" s="17"/>
-      <c r="D71" s="17"/>
-      <c r="E71" s="17"/>
-      <c r="F71" s="17"/>
-      <c r="G71" s="17"/>
+      <c r="C71" s="16"/>
+      <c r="D71" s="16"/>
+      <c r="E71" s="16"/>
+      <c r="F71" s="16"/>
+      <c r="G71" s="16"/>
     </row>
     <row r="72" spans="3:7">
-      <c r="C72" s="17"/>
-      <c r="D72" s="17"/>
-      <c r="E72" s="17"/>
-      <c r="F72" s="17"/>
-      <c r="G72" s="17"/>
+      <c r="C72" s="16"/>
+      <c r="D72" s="16"/>
+      <c r="E72" s="16"/>
+      <c r="F72" s="16"/>
+      <c r="G72" s="16"/>
     </row>
     <row r="73" spans="3:7">
-      <c r="C73" s="17"/>
-      <c r="D73" s="17"/>
-      <c r="E73" s="17"/>
-      <c r="F73" s="17"/>
-      <c r="G73" s="17"/>
+      <c r="C73" s="16"/>
+      <c r="D73" s="16"/>
+      <c r="E73" s="16"/>
+      <c r="F73" s="16"/>
+      <c r="G73" s="16"/>
     </row>
     <row r="74" spans="3:7">
-      <c r="C74" s="17"/>
-      <c r="D74" s="17"/>
-      <c r="E74" s="17"/>
-      <c r="F74" s="17"/>
-      <c r="G74" s="17"/>
+      <c r="C74" s="16"/>
+      <c r="D74" s="16"/>
+      <c r="E74" s="16"/>
+      <c r="F74" s="16"/>
+      <c r="G74" s="16"/>
     </row>
     <row r="75" spans="3:7">
-      <c r="C75" s="17"/>
-      <c r="D75" s="17"/>
-      <c r="E75" s="17"/>
-      <c r="F75" s="17"/>
-      <c r="G75" s="17"/>
+      <c r="C75" s="16"/>
+      <c r="D75" s="16"/>
+      <c r="E75" s="16"/>
+      <c r="F75" s="16"/>
+      <c r="G75" s="16"/>
     </row>
   </sheetData>
   <dataValidations count="1">

--- a/C# Advanced.xlsx
+++ b/C# Advanced.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\fromMainLaptop\ass_codebase\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="8355"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13770" windowHeight="4035"/>
   </bookViews>
   <sheets>
     <sheet name="Questions_Upload" sheetId="1" r:id="rId1"/>
@@ -14,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="252">
   <si>
     <t>Question Text</t>
   </si>
@@ -84,9 +89,6 @@
   </si>
   <si>
     <t>EASY</t>
-  </si>
-  <si>
-    <t>Test</t>
   </si>
   <si>
     <t>Which of the following is a correct statement about the C#.NET code given below?
@@ -1080,18 +1082,18 @@
   <si>
     <t>End Rows:</t>
   </si>
+  <si>
+    <t>Choice  3</t>
+  </si>
+  <si>
+    <t>IH</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;\ * #,##0_ ;_ &quot;₹&quot;\ * \-#,##0_ ;_ &quot;₹&quot;\ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1106,152 +1108,8 @@
       <name val="Calibri"/>
       <charset val="134"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="35">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1270,194 +1128,8 @@
         <bgColor indexed="26"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="11">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1491,253 +1163,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1780,73 +1210,29 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
-    <cellStyle name="Note" xfId="9" builtinId="10"/>
-    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2133,26 +1519,26 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D54" workbookViewId="0">
-      <selection activeCell="P54" sqref="P54"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="36.6285714285714" customWidth="1"/>
-    <col min="2" max="3" width="18.247619047619" customWidth="1"/>
-    <col min="4" max="7" width="18.1238095238095" customWidth="1"/>
-    <col min="8" max="8" width="20.8571428571429" customWidth="1"/>
-    <col min="14" max="14" width="11.1238095238095" customWidth="1"/>
-    <col min="15" max="15" width="13.247619047619" customWidth="1"/>
+    <col min="1" max="1" width="36.5703125" customWidth="1"/>
+    <col min="2" max="3" width="18.28515625" customWidth="1"/>
+    <col min="4" max="7" width="18.140625" customWidth="1"/>
+    <col min="8" max="8" width="20.85546875" customWidth="1"/>
+    <col min="14" max="14" width="11.140625" customWidth="1"/>
+    <col min="15" max="15" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -2205,7 +1591,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" ht="165" spans="1:16">
+    <row r="2" spans="1:16" ht="165">
       <c r="A2" s="2" t="s">
         <v>15</v>
       </c>
@@ -2224,7 +1610,7 @@
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5" t="s">
-        <v>3</v>
+        <v>250</v>
       </c>
       <c r="I2" s="10" t="s">
         <v>19</v>
@@ -2234,24 +1620,24 @@
         <v>20</v>
       </c>
       <c r="P2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="240">
+      <c r="A3" s="4" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="3" ht="240" spans="1:16">
-      <c r="A3" s="4" t="s">
+      <c r="B3" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="C3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>26</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
@@ -2267,24 +1653,24 @@
         <v>20</v>
       </c>
       <c r="P3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" ht="120" spans="1:16">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="120">
       <c r="A4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="C4" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="D4" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="E4" s="4" t="s">
         <v>30</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>31</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
@@ -2300,24 +1686,24 @@
         <v>20</v>
       </c>
       <c r="P4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" ht="120" spans="1:16">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="120">
       <c r="A5" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="C5" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="D5" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="E5" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>36</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
@@ -2333,24 +1719,24 @@
         <v>20</v>
       </c>
       <c r="P5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" ht="45" spans="1:16">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="45">
       <c r="A6" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="C6" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="D6" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="E6" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>41</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -2366,12 +1752,12 @@
         <v>20</v>
       </c>
       <c r="P6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" ht="165" spans="1:16">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="165">
       <c r="A7" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B7" s="6">
         <v>11</v>
@@ -2383,7 +1769,7 @@
         <v>2</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
@@ -2399,24 +1785,24 @@
         <v>20</v>
       </c>
       <c r="P7" t="s">
-        <v>21</v>
+        <v>251</v>
       </c>
     </row>
     <row r="8" spans="1:16">
       <c r="A8" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="C8" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="D8" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="E8" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>48</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
@@ -2432,24 +1818,24 @@
         <v>20</v>
       </c>
       <c r="P8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" ht="45" spans="1:16">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="45">
       <c r="A9" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C9" s="2" t="s">
+      <c r="D9" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="E9" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>52</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
@@ -2465,24 +1851,24 @@
         <v>20</v>
       </c>
       <c r="P9" t="s">
-        <v>21</v>
+        <v>251</v>
       </c>
     </row>
     <row r="10" spans="1:16">
       <c r="A10" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="C10" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="D10" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="E10" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>57</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
@@ -2498,24 +1884,24 @@
         <v>20</v>
       </c>
       <c r="P10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" ht="60" spans="1:16">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="60">
       <c r="A11" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B11" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="C11" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="D11" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="D11" s="9" t="s">
-        <v>61</v>
-      </c>
       <c r="E11" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F11" s="9"/>
       <c r="G11" s="9"/>
@@ -2531,24 +1917,24 @@
         <v>20</v>
       </c>
       <c r="P11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" ht="210" spans="1:16">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="210">
       <c r="A12" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B12" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="C12" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="D12" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="D12" s="9" t="s">
-        <v>65</v>
-      </c>
       <c r="E12" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F12" s="9"/>
       <c r="G12" s="9"/>
@@ -2564,24 +1950,24 @@
         <v>20</v>
       </c>
       <c r="P12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" ht="285" spans="1:16">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="285">
       <c r="A13" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B13" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="C13" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="D13" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="D13" s="9" t="s">
-        <v>69</v>
-      </c>
       <c r="E13" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F13" s="9"/>
       <c r="G13" s="9"/>
@@ -2597,24 +1983,24 @@
         <v>20</v>
       </c>
       <c r="P13" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" ht="105" spans="1:16">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="105">
       <c r="A14" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B14" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="C14" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="D14" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="E14" s="9" t="s">
         <v>73</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>74</v>
       </c>
       <c r="F14" s="9"/>
       <c r="G14" s="9"/>
@@ -2630,12 +2016,12 @@
         <v>20</v>
       </c>
       <c r="P14" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" ht="330" spans="1:16">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="330">
       <c r="A15" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B15" s="3">
         <v>2</v>
@@ -2663,24 +2049,24 @@
         <v>20</v>
       </c>
       <c r="P15" t="s">
-        <v>21</v>
+        <v>251</v>
       </c>
     </row>
     <row r="16" spans="1:16">
       <c r="A16" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="C16" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="D16" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="E16" s="9" t="s">
         <v>79</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>80</v>
       </c>
       <c r="F16" s="9"/>
       <c r="G16" s="9"/>
@@ -2696,24 +2082,24 @@
         <v>20</v>
       </c>
       <c r="P16" t="s">
-        <v>21</v>
+        <v>251</v>
       </c>
     </row>
     <row r="17" spans="1:16">
       <c r="A17" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B17" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="B17" s="18" t="s">
+      <c r="C17" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="D17" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="D17" s="4" t="s">
-        <v>84</v>
-      </c>
       <c r="E17" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F17" s="9"/>
       <c r="G17" s="9"/>
@@ -2729,24 +2115,24 @@
         <v>20</v>
       </c>
       <c r="P17" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" ht="105" spans="1:16">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" ht="105">
       <c r="A18" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B18" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="B18" s="19" t="s">
+      <c r="C18" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="C18" s="20" t="s">
+      <c r="D18" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="D18" s="4" t="s">
-        <v>88</v>
-      </c>
       <c r="E18" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
@@ -2762,24 +2148,24 @@
         <v>20</v>
       </c>
       <c r="P18" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" ht="90" spans="1:16">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" ht="90">
       <c r="A19" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="C19" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="D19" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="D19" s="4" t="s">
-        <v>92</v>
-      </c>
       <c r="E19" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
@@ -2795,24 +2181,24 @@
         <v>20</v>
       </c>
       <c r="P19" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="20" ht="105" spans="1:16">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" ht="105">
       <c r="A20" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B20" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="C20" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="D20" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="E20" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>97</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
@@ -2828,24 +2214,24 @@
         <v>20</v>
       </c>
       <c r="P20" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="21" ht="120" spans="1:16">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" ht="120">
       <c r="A21" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B21" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="C21" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="D21" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="D21" s="4" t="s">
-        <v>101</v>
-      </c>
       <c r="E21" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
@@ -2861,24 +2247,24 @@
         <v>20</v>
       </c>
       <c r="P21" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" ht="45" spans="1:16">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" ht="45">
       <c r="A22" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B22" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="C22" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="D22" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="D22" s="4" t="s">
-        <v>105</v>
-      </c>
       <c r="E22" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
@@ -2894,24 +2280,24 @@
         <v>20</v>
       </c>
       <c r="P22" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" ht="30" spans="1:16">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" ht="30">
       <c r="A23" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B23" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="C23" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="C23" s="9" t="s">
+      <c r="D23" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="D23" s="9" t="s">
+      <c r="E23" s="9" t="s">
         <v>109</v>
-      </c>
-      <c r="E23" s="9" t="s">
-        <v>110</v>
       </c>
       <c r="F23" s="9"/>
       <c r="G23" s="9"/>
@@ -2927,12 +2313,12 @@
         <v>20</v>
       </c>
       <c r="P23" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24" ht="225" spans="1:16">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" ht="225">
       <c r="A24" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B24" s="8">
         <v>12345</v>
@@ -2944,7 +2330,7 @@
         <v>1234500</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
@@ -2960,24 +2346,24 @@
         <v>20</v>
       </c>
       <c r="P24" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="25" ht="255" spans="1:16">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" ht="255">
       <c r="A25" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B25" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="C25" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="D25" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="E25" s="4" t="s">
         <v>115</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>116</v>
       </c>
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
@@ -2993,12 +2379,12 @@
         <v>20</v>
       </c>
       <c r="P25" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="26" ht="285" spans="1:16">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" ht="285">
       <c r="A26" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B26" s="3">
         <v>-1</v>
@@ -3007,10 +2393,10 @@
         <v>0</v>
       </c>
       <c r="D26" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="E26" s="20" t="s">
         <v>118</v>
-      </c>
-      <c r="E26" s="20" t="s">
-        <v>119</v>
       </c>
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
@@ -3026,24 +2412,24 @@
         <v>20</v>
       </c>
       <c r="P26" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="27" ht="45" spans="1:16">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" ht="45">
       <c r="A27" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B27" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="C27" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="C27" s="20" t="s">
+      <c r="D27" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="D27" s="4" t="s">
+      <c r="E27" s="20" t="s">
         <v>123</v>
-      </c>
-      <c r="E27" s="20" t="s">
-        <v>124</v>
       </c>
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
@@ -3059,24 +2445,24 @@
         <v>20</v>
       </c>
       <c r="P27" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="28" ht="60" spans="1:16">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" ht="60">
       <c r="A28" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="B28" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="C28" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="D28" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="D28" s="9" t="s">
+      <c r="E28" s="9" t="s">
         <v>128</v>
-      </c>
-      <c r="E28" s="9" t="s">
-        <v>129</v>
       </c>
       <c r="F28" s="9"/>
       <c r="G28" s="9"/>
@@ -3092,24 +2478,24 @@
         <v>20</v>
       </c>
       <c r="P28" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="29" ht="285" spans="1:16">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" ht="300">
       <c r="A29" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="B29" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="C29" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="D29" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="D29" s="4" t="s">
-        <v>133</v>
-      </c>
       <c r="E29" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
@@ -3125,24 +2511,24 @@
         <v>20</v>
       </c>
       <c r="P29" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="30" ht="225" spans="1:16">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" ht="225">
       <c r="A30" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="B30" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="C30" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="D30" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="D30" s="9" t="s">
-        <v>137</v>
-      </c>
       <c r="E30" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F30" s="9"/>
       <c r="G30" s="9"/>
@@ -3158,24 +2544,24 @@
         <v>20</v>
       </c>
       <c r="P30" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="31" ht="75" spans="1:16">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" ht="75">
       <c r="A31" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="B31" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="B31" s="12" t="s">
+      <c r="C31" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="C31" s="12" t="s">
+      <c r="D31" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="D31" s="12" t="s">
-        <v>141</v>
-      </c>
       <c r="E31" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F31" s="12"/>
       <c r="G31" s="12"/>
@@ -3191,24 +2577,24 @@
         <v>20</v>
       </c>
       <c r="P31" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="32" ht="30" spans="1:16">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" ht="30">
       <c r="A32" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="B32" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="C32" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="C32" s="12" t="s">
+      <c r="D32" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="D32" s="12" t="s">
+      <c r="E32" s="12" t="s">
         <v>145</v>
-      </c>
-      <c r="E32" s="12" t="s">
-        <v>146</v>
       </c>
       <c r="F32" s="12"/>
       <c r="G32" s="12"/>
@@ -3224,24 +2610,24 @@
         <v>20</v>
       </c>
       <c r="P32" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="33" ht="120" spans="1:16">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" ht="150">
       <c r="A33" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="B33" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="C33" s="12" t="s">
         <v>148</v>
       </c>
-      <c r="C33" s="12" t="s">
+      <c r="D33" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="D33" s="12" t="s">
-        <v>150</v>
-      </c>
       <c r="E33" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F33" s="12"/>
       <c r="G33" s="12"/>
@@ -3257,24 +2643,24 @@
         <v>20</v>
       </c>
       <c r="P33" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="34" ht="30" spans="1:16">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" ht="45">
       <c r="A34" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="B34" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="C34" s="12" t="s">
         <v>152</v>
       </c>
-      <c r="C34" s="12" t="s">
+      <c r="D34" s="12" t="s">
         <v>153</v>
       </c>
-      <c r="D34" s="12" t="s">
-        <v>154</v>
-      </c>
       <c r="E34" s="12" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F34" s="12"/>
       <c r="G34" s="12"/>
@@ -3290,24 +2676,24 @@
         <v>20</v>
       </c>
       <c r="P34" t="s">
-        <v>21</v>
+        <v>251</v>
       </c>
     </row>
     <row r="35" spans="1:16">
       <c r="A35" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="B35" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="C35" s="12" t="s">
         <v>156</v>
       </c>
-      <c r="C35" s="12" t="s">
+      <c r="D35" s="12" t="s">
         <v>157</v>
       </c>
-      <c r="D35" s="12" t="s">
+      <c r="E35" s="12" t="s">
         <v>158</v>
-      </c>
-      <c r="E35" s="12" t="s">
-        <v>159</v>
       </c>
       <c r="F35" s="12"/>
       <c r="G35" s="12"/>
@@ -3323,12 +2709,12 @@
         <v>20</v>
       </c>
       <c r="P35" t="s">
-        <v>21</v>
+        <v>251</v>
       </c>
     </row>
     <row r="36" spans="1:16">
       <c r="A36" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B36" s="3" t="b">
         <v>0</v>
@@ -3340,7 +2726,7 @@
         <v>-1</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F36" s="9"/>
       <c r="G36" s="9"/>
@@ -3356,24 +2742,24 @@
         <v>20</v>
       </c>
       <c r="P36" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="37" ht="60" spans="1:16">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" ht="60">
       <c r="A37" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="B37" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="B37" s="5" t="s">
+      <c r="C37" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="C37" s="12" t="s">
+      <c r="D37" s="12" t="s">
         <v>163</v>
       </c>
-      <c r="D37" s="12" t="s">
-        <v>164</v>
-      </c>
       <c r="E37" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F37" s="12"/>
       <c r="G37" s="12"/>
@@ -3389,24 +2775,24 @@
         <v>20</v>
       </c>
       <c r="P37" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="38" ht="120" spans="1:16">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" ht="120">
       <c r="A38" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C38" s="12" t="s">
         <v>165</v>
       </c>
-      <c r="B38" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="C38" s="12" t="s">
+      <c r="D38" s="12" t="s">
         <v>166</v>
       </c>
-      <c r="D38" s="12" t="s">
+      <c r="E38" s="12" t="s">
         <v>167</v>
-      </c>
-      <c r="E38" s="12" t="s">
-        <v>168</v>
       </c>
       <c r="F38" s="12"/>
       <c r="G38" s="12"/>
@@ -3422,24 +2808,24 @@
         <v>20</v>
       </c>
       <c r="P38" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="39" ht="150" spans="1:16">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" ht="150">
       <c r="A39" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="B39" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="B39" s="5" t="s">
+      <c r="C39" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="C39" s="12" t="s">
+      <c r="D39" s="12" t="s">
         <v>171</v>
       </c>
-      <c r="D39" s="12" t="s">
-        <v>172</v>
-      </c>
       <c r="E39" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F39" s="12"/>
       <c r="G39" s="12"/>
@@ -3455,24 +2841,24 @@
         <v>20</v>
       </c>
       <c r="P39" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="40" ht="30" spans="1:16">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" ht="30">
       <c r="A40" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="B40" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="B40" s="5" t="s">
+      <c r="C40" s="12" t="s">
         <v>174</v>
       </c>
-      <c r="C40" s="12" t="s">
+      <c r="D40" s="12" t="s">
         <v>175</v>
       </c>
-      <c r="D40" s="12" t="s">
-        <v>176</v>
-      </c>
       <c r="E40" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F40" s="12"/>
       <c r="G40" s="12"/>
@@ -3488,29 +2874,29 @@
         <v>20</v>
       </c>
       <c r="P40" t="s">
-        <v>21</v>
+        <v>251</v>
       </c>
     </row>
     <row r="41" spans="1:16">
       <c r="A41" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="B41" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="B41" s="5" t="s">
+      <c r="C41" s="12" t="s">
         <v>178</v>
       </c>
-      <c r="C41" s="12" t="s">
+      <c r="D41" s="12" t="s">
         <v>179</v>
       </c>
-      <c r="D41" s="12" t="s">
+      <c r="E41" s="12" t="s">
         <v>180</v>
-      </c>
-      <c r="E41" s="12" t="s">
-        <v>181</v>
       </c>
       <c r="F41" s="12"/>
       <c r="G41" s="12"/>
       <c r="H41" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I41" s="10" t="s">
         <v>19</v>
@@ -3521,29 +2907,29 @@
         <v>20</v>
       </c>
       <c r="P41" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="42" ht="45" spans="1:16">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" ht="45">
       <c r="A42" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="B42" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="B42" s="5" t="s">
+      <c r="C42" s="12" t="s">
         <v>184</v>
       </c>
-      <c r="C42" s="12" t="s">
+      <c r="D42" s="12" t="s">
         <v>185</v>
       </c>
-      <c r="D42" s="12" t="s">
-        <v>186</v>
-      </c>
       <c r="E42" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F42" s="12"/>
       <c r="G42" s="12"/>
       <c r="H42" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I42" s="10" t="s">
         <v>19</v>
@@ -3554,24 +2940,24 @@
         <v>20</v>
       </c>
       <c r="P42" t="s">
-        <v>21</v>
+        <v>251</v>
       </c>
     </row>
     <row r="43" spans="1:16">
       <c r="A43" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B43" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="B43" s="5" t="s">
+      <c r="C43" s="12" t="s">
         <v>189</v>
       </c>
-      <c r="C43" s="12" t="s">
+      <c r="D43" s="12" t="s">
         <v>190</v>
       </c>
-      <c r="D43" s="12" t="s">
-        <v>191</v>
-      </c>
       <c r="E43" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F43" s="12"/>
       <c r="G43" s="12"/>
@@ -3587,24 +2973,24 @@
         <v>20</v>
       </c>
       <c r="P43" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="44" ht="30" spans="1:16">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" ht="45">
       <c r="A44" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="B44" s="12" t="s">
         <v>192</v>
       </c>
-      <c r="B44" s="12" t="s">
+      <c r="C44" s="12" t="s">
         <v>193</v>
       </c>
-      <c r="C44" s="12" t="s">
+      <c r="D44" s="12" t="s">
         <v>194</v>
       </c>
-      <c r="D44" s="12" t="s">
+      <c r="E44" s="12" t="s">
         <v>195</v>
-      </c>
-      <c r="E44" s="12" t="s">
-        <v>196</v>
       </c>
       <c r="F44" s="12"/>
       <c r="G44" s="12"/>
@@ -3620,24 +3006,24 @@
         <v>20</v>
       </c>
       <c r="P44" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="45" ht="60" spans="1:16">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" ht="60">
       <c r="A45" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="B45" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="B45" s="5" t="s">
+      <c r="C45" s="12" t="s">
         <v>198</v>
       </c>
-      <c r="C45" s="12" t="s">
+      <c r="D45" s="12" t="s">
         <v>199</v>
       </c>
-      <c r="D45" s="12" t="s">
+      <c r="E45" s="12" t="s">
         <v>200</v>
-      </c>
-      <c r="E45" s="12" t="s">
-        <v>201</v>
       </c>
       <c r="F45" s="12"/>
       <c r="G45" s="12"/>
@@ -3653,24 +3039,24 @@
         <v>20</v>
       </c>
       <c r="P45" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="46" ht="45" spans="1:16">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" ht="60">
       <c r="A46" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="B46" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="B46" s="5" t="s">
+      <c r="C46" s="12" t="s">
         <v>203</v>
       </c>
-      <c r="C46" s="12" t="s">
+      <c r="D46" s="12" t="s">
         <v>204</v>
       </c>
-      <c r="D46" s="12" t="s">
-        <v>205</v>
-      </c>
       <c r="E46" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F46" s="12"/>
       <c r="G46" s="12"/>
@@ -3686,24 +3072,24 @@
         <v>20</v>
       </c>
       <c r="P46" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="47" ht="45" spans="1:16">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" ht="60">
       <c r="A47" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B47" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C47" s="12" t="s">
         <v>203</v>
       </c>
-      <c r="C47" s="12" t="s">
+      <c r="D47" s="12" t="s">
         <v>204</v>
       </c>
-      <c r="D47" s="12" t="s">
-        <v>205</v>
-      </c>
       <c r="E47" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F47" s="12"/>
       <c r="G47" s="12"/>
@@ -3719,24 +3105,24 @@
         <v>20</v>
       </c>
       <c r="P47" t="s">
-        <v>21</v>
+        <v>251</v>
       </c>
     </row>
     <row r="48" spans="1:16">
       <c r="A48" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="B48" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="B48" s="5" t="s">
+      <c r="C48" s="12" t="s">
         <v>208</v>
       </c>
-      <c r="C48" s="12" t="s">
+      <c r="D48" s="12" t="s">
         <v>209</v>
       </c>
-      <c r="D48" s="12" t="s">
+      <c r="E48" s="12" t="s">
         <v>210</v>
-      </c>
-      <c r="E48" s="12" t="s">
-        <v>211</v>
       </c>
       <c r="F48" s="12"/>
       <c r="G48" s="12"/>
@@ -3752,24 +3138,24 @@
         <v>20</v>
       </c>
       <c r="P48" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="49" ht="180" spans="1:16">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" ht="180">
       <c r="A49" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="B49" s="12" t="s">
         <v>212</v>
       </c>
-      <c r="B49" s="12" t="s">
+      <c r="C49" s="12" t="s">
         <v>213</v>
       </c>
-      <c r="C49" s="12" t="s">
+      <c r="D49" s="12" t="s">
         <v>214</v>
       </c>
-      <c r="D49" s="12" t="s">
-        <v>215</v>
-      </c>
       <c r="E49" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F49" s="12"/>
       <c r="G49" s="12"/>
@@ -3785,24 +3171,24 @@
         <v>20</v>
       </c>
       <c r="P49" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="50" ht="165" spans="1:16">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" ht="180">
       <c r="A50" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="B50" s="12" t="s">
         <v>216</v>
       </c>
-      <c r="B50" s="12" t="s">
+      <c r="C50" s="12" t="s">
         <v>217</v>
       </c>
-      <c r="C50" s="12" t="s">
+      <c r="D50" s="12" t="s">
         <v>218</v>
       </c>
-      <c r="D50" s="12" t="s">
+      <c r="E50" s="12" t="s">
         <v>219</v>
-      </c>
-      <c r="E50" s="12" t="s">
-        <v>220</v>
       </c>
       <c r="F50" s="12"/>
       <c r="G50" s="12"/>
@@ -3818,24 +3204,24 @@
         <v>20</v>
       </c>
       <c r="P50" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="51" ht="45" spans="1:16">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" ht="45">
       <c r="A51" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="B51" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="B51" s="5" t="s">
+      <c r="C51" s="12" t="s">
         <v>222</v>
       </c>
-      <c r="C51" s="12" t="s">
+      <c r="D51" s="12" t="s">
         <v>223</v>
       </c>
-      <c r="D51" s="12" t="s">
+      <c r="E51" s="12" t="s">
         <v>224</v>
-      </c>
-      <c r="E51" s="12" t="s">
-        <v>225</v>
       </c>
       <c r="F51" s="12"/>
       <c r="G51" s="12"/>
@@ -3851,24 +3237,24 @@
         <v>20</v>
       </c>
       <c r="P51" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="52" ht="255" spans="1:16">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" ht="255">
       <c r="A52" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="B52" s="21" t="s">
         <v>226</v>
       </c>
-      <c r="B52" s="21" t="s">
+      <c r="C52" s="22" t="s">
         <v>227</v>
       </c>
-      <c r="C52" s="22" t="s">
+      <c r="D52" s="22" t="s">
         <v>228</v>
       </c>
-      <c r="D52" s="22" t="s">
-        <v>229</v>
-      </c>
       <c r="E52" s="12" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F52" s="12"/>
       <c r="G52" s="12"/>
@@ -3884,15 +3270,15 @@
         <v>20</v>
       </c>
       <c r="P52" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="53" ht="255" spans="1:16">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" ht="255">
       <c r="A53" s="12" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C53" s="12">
         <v>3</v>
@@ -3901,7 +3287,7 @@
         <v>5</v>
       </c>
       <c r="E53" s="12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F53" s="12"/>
       <c r="G53" s="12"/>
@@ -3917,24 +3303,24 @@
         <v>20</v>
       </c>
       <c r="P53" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="54" ht="330" spans="1:16">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" ht="330">
       <c r="A54" s="12" t="s">
+        <v>230</v>
+      </c>
+      <c r="B54" s="12" t="s">
         <v>231</v>
       </c>
-      <c r="B54" s="12" t="s">
+      <c r="C54" s="12" t="s">
         <v>232</v>
       </c>
-      <c r="C54" s="12" t="s">
+      <c r="D54" s="12" t="s">
         <v>233</v>
       </c>
-      <c r="D54" s="12" t="s">
+      <c r="E54" s="12" t="s">
         <v>234</v>
-      </c>
-      <c r="E54" s="12" t="s">
-        <v>235</v>
       </c>
       <c r="F54" s="12"/>
       <c r="G54" s="12"/>
@@ -3950,24 +3336,24 @@
         <v>20</v>
       </c>
       <c r="P54" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="55" ht="60" spans="1:16">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" ht="60">
       <c r="A55" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="B55" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="B55" s="5" t="s">
+      <c r="C55" s="12" t="s">
         <v>237</v>
       </c>
-      <c r="C55" s="12" t="s">
+      <c r="D55" s="12" t="s">
         <v>238</v>
       </c>
-      <c r="D55" s="12" t="s">
+      <c r="E55" s="12" t="s">
         <v>239</v>
-      </c>
-      <c r="E55" s="12" t="s">
-        <v>240</v>
       </c>
       <c r="F55" s="12"/>
       <c r="G55" s="12"/>
@@ -3983,24 +3369,24 @@
         <v>20</v>
       </c>
       <c r="P55" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="56" ht="210" spans="1:16">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" ht="210">
       <c r="A56" s="12" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B56" s="5">
         <v>6</v>
       </c>
       <c r="C56" s="12" t="s">
+        <v>241</v>
+      </c>
+      <c r="D56" s="12" t="s">
         <v>242</v>
       </c>
-      <c r="D56" s="12" t="s">
+      <c r="E56" s="12" t="s">
         <v>243</v>
-      </c>
-      <c r="E56" s="12" t="s">
-        <v>244</v>
       </c>
       <c r="F56" s="12"/>
       <c r="G56" s="12"/>
@@ -4016,24 +3402,24 @@
         <v>20</v>
       </c>
       <c r="P56" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="57" ht="195" spans="1:16">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" ht="195">
       <c r="A57" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="B57" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="B57" s="3" t="s">
+      <c r="C57" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="C57" s="4" t="s">
+      <c r="D57" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="D57" s="4" t="s">
+      <c r="E57" s="4" t="s">
         <v>248</v>
-      </c>
-      <c r="E57" s="4" t="s">
-        <v>249</v>
       </c>
       <c r="F57" s="4"/>
       <c r="G57" s="4"/>
@@ -4049,12 +3435,12 @@
         <v>20</v>
       </c>
       <c r="P57" t="s">
-        <v>21</v>
+        <v>251</v>
       </c>
     </row>
     <row r="58" spans="1:16">
       <c r="A58" s="11" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B58" s="15"/>
       <c r="C58" s="4"/>
@@ -4070,45 +3456,45 @@
         <v>20</v>
       </c>
       <c r="P58" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="59" spans="3:7">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16">
       <c r="C59" s="16"/>
       <c r="D59" s="16"/>
       <c r="E59" s="16"/>
       <c r="F59" s="16"/>
       <c r="G59" s="16"/>
     </row>
-    <row r="60" spans="3:7">
+    <row r="60" spans="1:16">
       <c r="C60" s="16"/>
       <c r="D60" s="16"/>
       <c r="E60" s="16"/>
       <c r="F60" s="16"/>
       <c r="G60" s="16"/>
     </row>
-    <row r="61" spans="3:7">
+    <row r="61" spans="1:16">
       <c r="C61" s="16"/>
       <c r="D61" s="16"/>
       <c r="E61" s="16"/>
       <c r="F61" s="16"/>
       <c r="G61" s="16"/>
     </row>
-    <row r="62" spans="3:7">
+    <row r="62" spans="1:16">
       <c r="C62" s="16"/>
       <c r="D62" s="16"/>
       <c r="E62" s="16"/>
       <c r="F62" s="16"/>
       <c r="G62" s="16"/>
     </row>
-    <row r="63" spans="3:7">
+    <row r="63" spans="1:16">
       <c r="C63" s="16"/>
       <c r="D63" s="16"/>
       <c r="E63" s="16"/>
       <c r="F63" s="16"/>
       <c r="G63" s="16"/>
     </row>
-    <row r="64" spans="3:7">
+    <row r="64" spans="1:16">
       <c r="C64" s="16"/>
       <c r="D64" s="16"/>
       <c r="E64" s="16"/>
@@ -4198,8 +3584,7 @@
       <formula1>"Update,Delete"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>